--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{792918D4-2CA4-40E6-AD7D-935484C976E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF2F6E7-2FEE-44F6-B446-D6E0F8A86002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="3135" windowWidth="20190" windowHeight="11880" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="615" yWindow="1470" windowWidth="21855" windowHeight="13065" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,97 +155,130 @@
     <t>SwordF06</t>
   </si>
   <si>
+    <t>Equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>using</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 체력 포션</t>
+  </si>
+  <si>
+    <t>고급 체력 포션</t>
+  </si>
+  <si>
+    <t>초급 마력 포션</t>
+  </si>
+  <si>
+    <t>고급 마력 포션</t>
+  </si>
+  <si>
+    <t>초급 스태미너 포션</t>
+  </si>
+  <si>
+    <t>고급 스태미너 포션</t>
+  </si>
+  <si>
+    <t>이동속도 포션</t>
+  </si>
+  <si>
+    <t>도토리의 낡은 검</t>
+  </si>
+  <si>
+    <t>성기사의 검</t>
+  </si>
+  <si>
+    <t>드래곤의 검</t>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 체력 포션으로 사용 시 체력이 5만큼 회복 됩니다.</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 마력 포션으로 사용 시 마력이 3만큼 회복 됩니다.</t>
+  </si>
+  <si>
+    <t>초급 스태미너 포션으로 사용 시 스태미너가 5만큼 회복 됩니다.</t>
+  </si>
+  <si>
+    <t>초급 이동속도 포션으로 사용 시 이동속도가 60초 동안 10% 증가합니다.</t>
+  </si>
+  <si>
+    <t>토리 왕국에서 아버지에게 물려받은 오래된 낡은 검이다.</t>
+  </si>
+  <si>
+    <t>성기사 단장의 기운이 담겨 있는 견고한 검이다.</t>
+  </si>
+  <si>
+    <t>화산 지대에 살고 있는 드래곤의 브레스로 만들어진 신비로운 검이다.</t>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Potion_Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Potion_Mana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Potion_Stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Potion_Generic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/SwordDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/SwordF06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SwordDragon</t>
-  </si>
-  <si>
-    <t>Equip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>using</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초급 체력 포션</t>
-  </si>
-  <si>
-    <t>고급 체력 포션</t>
-  </si>
-  <si>
-    <t>초급 마력 포션</t>
-  </si>
-  <si>
-    <t>고급 마력 포션</t>
-  </si>
-  <si>
-    <t>초급 스태미너 포션</t>
-  </si>
-  <si>
-    <t>고급 스태미너 포션</t>
-  </si>
-  <si>
-    <t>이동속도 포션</t>
-  </si>
-  <si>
-    <t>도토리의 낡은 검</t>
-  </si>
-  <si>
-    <t>성기사의 검</t>
-  </si>
-  <si>
-    <t>드래곤의 검</t>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초급 체력 포션으로 사용 시 체력이 5만큼 회복 됩니다.</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초급 마력 포션으로 사용 시 마력이 3만큼 회복 됩니다.</t>
-  </si>
-  <si>
-    <t>초급 스태미너 포션으로 사용 시 스태미너가 5만큼 회복 됩니다.</t>
-  </si>
-  <si>
-    <t>초급 이동속도 포션으로 사용 시 이동속도가 60초 동안 10% 증가합니다.</t>
-  </si>
-  <si>
-    <t>토리 왕국에서 아버지에게 물려받은 오래된 낡은 검이다.</t>
-  </si>
-  <si>
-    <t>성기사 단장의 기운이 담겨 있는 견고한 검이다.</t>
-  </si>
-  <si>
-    <t>화산 지대에 살고 있는 드래곤의 브레스로 만들어진 신비로운 검이다.</t>
-  </si>
-  <si>
-    <t>Critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/SwordDragon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -349,16 +382,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -675,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -693,41 +726,44 @@
     <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1">
+    <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="6">
         <v>5</v>
@@ -742,18 +778,21 @@
         <v>100</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1">
+    <row r="3" spans="1:10" s="5" customFormat="1">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6">
         <v>10</v>
@@ -768,18 +807,21 @@
         <v>100</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1">
+    <row r="4" spans="1:10" s="5" customFormat="1">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
@@ -794,18 +836,21 @@
         <v>100</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1">
+    <row r="5" spans="1:10" s="5" customFormat="1">
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6">
         <v>7</v>
@@ -820,18 +865,21 @@
         <v>100</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1">
+    <row r="6" spans="1:10" s="5" customFormat="1">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="6">
         <v>5</v>
@@ -846,18 +894,21 @@
         <v>100</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1">
+    <row r="7" spans="1:10" s="5" customFormat="1">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6">
         <v>10</v>
@@ -872,18 +923,21 @@
         <v>100</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="5" customFormat="1">
+    <row r="8" spans="1:10" s="5" customFormat="1">
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="6">
         <v>0.1</v>
@@ -898,18 +952,21 @@
         <v>100</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1">
+    <row r="9" spans="1:10" s="5" customFormat="1">
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
@@ -924,18 +981,21 @@
         <v>100</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1">
+    <row r="10" spans="1:10" s="5" customFormat="1">
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
@@ -950,18 +1010,21 @@
         <v>100</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1">
+    <row r="11" spans="1:10" s="5" customFormat="1">
       <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D11" s="6">
         <v>0</v>
@@ -976,10 +1039,13 @@
         <v>100</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF2F6E7-2FEE-44F6-B446-D6E0F8A86002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476729F8-E646-4A38-9A32-F58FC314C730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="1470" windowWidth="21855" windowHeight="13065" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author>이영선</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C543CD02-1188-45F6-A50D-B3A545D100A0}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C543CD02-1188-45F6-A50D-B3A545D100A0}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F530216B-86E3-428B-B6AE-83DAB6F8B3D7}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{F530216B-86E3-428B-B6AE-83DAB6F8B3D7}">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Icons/Potion_Health</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,6 +275,14 @@
   </si>
   <si>
     <t>Images/Icons/SwordDragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,344 +712,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="67.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>100</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1">
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="1:11" s="5" customFormat="1">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E3" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>100</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="5" customFormat="1">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>100</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>100</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="I5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1">
-      <c r="B3" s="4" t="s">
+    <row r="6" spans="1:11" s="5" customFormat="1">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>100</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>100</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="5" customFormat="1">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>100</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>100</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="5" customFormat="1">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>100</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="5" customFormat="1">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>100</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="5" customFormat="1">
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>100</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="5" customFormat="1">
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>100</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="5" customFormat="1">
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>100</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="5" customFormat="1">
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>100</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="5" customFormat="1">
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>100</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="5" customFormat="1">
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>100</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="5" customFormat="1">
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>100</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1">
-      <c r="B11" s="4" t="s">
+      <c r="I11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>3</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>100</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476729F8-E646-4A38-9A32-F58FC314C730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6B2A02-C1A0-41F3-A518-7E28848A872B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="8655" yWindow="3420" windowWidth="19545" windowHeight="11295" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,72 +217,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>초급 마력 포션으로 사용 시 마력이 3만큼 회복 됩니다.</t>
+  </si>
+  <si>
+    <t>초급 이동속도 포션으로 사용 시 이동속도가 60초 동안 10% 증가합니다.</t>
+  </si>
+  <si>
+    <t>토리 왕국에서 아버지에게 물려받은 오래된 낡은 검이다.</t>
+  </si>
+  <si>
+    <t>성기사 단장의 기운이 담겨 있는 견고한 검이다.</t>
+  </si>
+  <si>
+    <t>화산 지대에 살고 있는 드래곤의 브레스로 만들어진 신비로운 검이다.</t>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Potion_Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Potion_Mana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Potion_Stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Potion_Generic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/SwordDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/SwordF06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordDragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/SwordDragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>초급 체력 포션으로 사용 시 체력이 5만큼 회복 됩니다.</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초급 마력 포션으로 사용 시 마력이 3만큼 회복 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 체력 포션으로 사용 시 체력이 10만큼 회복 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 마력 포션으로 사용 시 마력이 7만큼 회복 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>초급 스태미너 포션으로 사용 시 스태미너가 5만큼 회복 됩니다.</t>
-  </si>
-  <si>
-    <t>초급 이동속도 포션으로 사용 시 이동속도가 60초 동안 10% 증가합니다.</t>
-  </si>
-  <si>
-    <t>토리 왕국에서 아버지에게 물려받은 오래된 낡은 검이다.</t>
-  </si>
-  <si>
-    <t>성기사 단장의 기운이 담겨 있는 견고한 검이다.</t>
-  </si>
-  <si>
-    <t>화산 지대에 살고 있는 드래곤의 브레스로 만들어진 신비로운 검이다.</t>
-  </si>
-  <si>
-    <t>Critical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Icons/Potion_Health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Icons/Potion_Mana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Icons/Potion_Stamina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Icons/Potion_Generic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Icons/SwordDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Icons/SwordF06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwordDragon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Icons/SwordDragon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 스태미너 포션으로 사용 시 스태미너가 10만큼 회복 됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,7 +383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,6 +407,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -736,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -751,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>17</v>
@@ -763,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1">
@@ -792,10 +805,10 @@
         <v>18</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1">
@@ -823,11 +836,11 @@
       <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>30</v>
+      <c r="J3" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1">
@@ -856,10 +869,10 @@
         <v>20</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1">
@@ -887,11 +900,11 @@
       <c r="I5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>30</v>
+      <c r="J5" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1">
@@ -920,10 +933,10 @@
         <v>22</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1">
@@ -951,11 +964,11 @@
       <c r="I7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>30</v>
+      <c r="J7" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1">
@@ -984,10 +997,10 @@
         <v>24</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1">
@@ -1016,10 +1029,10 @@
         <v>25</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1">
@@ -1048,10 +1061,10 @@
         <v>26</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1">
@@ -1059,7 +1072,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1080,10 +1093,10 @@
         <v>27</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6B2A02-C1A0-41F3-A518-7E28848A872B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F45AAFA-FDCE-4465-9C3D-4402274FA7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="3420" windowWidth="19545" windowHeight="11295" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +293,46 @@
   </si>
   <si>
     <t>고급 스태미너 포션으로 사용 시 스태미너가 10만큼 회복 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/BigHPPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/SmallHPPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/BigMPPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/SmallMPPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/SmallSPPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/BigSPPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/SpeedPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -741,10 +781,11 @@
     <col min="10" max="10" width="67.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.25" customWidth="1"/>
     <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -778,8 +819,14 @@
       <c r="K1" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1">
+    <row r="2" spans="1:13" s="5" customFormat="1">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -810,8 +857,14 @@
       <c r="K2" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="L2" s="5">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" s="5" customFormat="1">
+    <row r="3" spans="1:13" s="5" customFormat="1">
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -842,8 +895,14 @@
       <c r="K3" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="L3" s="5">
+        <v>10</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" s="5" customFormat="1">
+    <row r="4" spans="1:13" s="5" customFormat="1">
       <c r="B4" s="6">
         <v>3</v>
       </c>
@@ -874,8 +933,14 @@
       <c r="K4" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="L4" s="5">
+        <v>10</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1">
+    <row r="5" spans="1:13" s="5" customFormat="1">
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -906,8 +971,14 @@
       <c r="K5" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="L5" s="5">
+        <v>10</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1">
+    <row r="6" spans="1:13" s="5" customFormat="1">
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -938,8 +1009,14 @@
       <c r="K6" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="L6" s="5">
+        <v>10</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" s="5" customFormat="1">
+    <row r="7" spans="1:13" s="5" customFormat="1">
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -970,8 +1047,14 @@
       <c r="K7" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="L7" s="5">
+        <v>10</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1">
+    <row r="8" spans="1:13" s="5" customFormat="1">
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -1002,8 +1085,14 @@
       <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="L8" s="5">
+        <v>10</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" s="5" customFormat="1">
+    <row r="9" spans="1:13" s="5" customFormat="1">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -1034,8 +1123,11 @@
       <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" s="5" customFormat="1">
+    <row r="10" spans="1:13" s="5" customFormat="1">
       <c r="B10" s="6">
         <v>9</v>
       </c>
@@ -1066,8 +1158,11 @@
       <c r="K10" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" s="5" customFormat="1">
+    <row r="11" spans="1:13" s="5" customFormat="1">
       <c r="B11" s="6">
         <v>10</v>
       </c>
@@ -1097,6 +1192,12 @@
       </c>
       <c r="K11" s="5" t="s">
         <v>42</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F45AAFA-FDCE-4465-9C3D-4402274FA7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647614A7-566C-4F9C-9FDA-368E23478F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="0" yWindow="2490" windowWidth="19545" windowHeight="11295" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,7 +332,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Prefabs/Weapons/SwordDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Weapons/SwordF06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Weapons/SwordDragon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1126,6 +1134,9 @@
       <c r="L9" s="5">
         <v>0</v>
       </c>
+      <c r="M9" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1">
       <c r="B10" s="6">
@@ -1161,6 +1172,9 @@
       <c r="L10" s="5">
         <v>0</v>
       </c>
+      <c r="M10" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1">
       <c r="B11" s="6">
@@ -1197,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647614A7-566C-4F9C-9FDA-368E23478F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E4BE65-D9AD-43C9-A48C-98AA7720AB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2490" windowWidth="19545" windowHeight="11295" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
@@ -220,9 +220,6 @@
     <t>초급 마력 포션으로 사용 시 마력이 3만큼 회복 됩니다.</t>
   </si>
   <si>
-    <t>초급 이동속도 포션으로 사용 시 이동속도가 60초 동안 10% 증가합니다.</t>
-  </si>
-  <si>
     <t>토리 왕국에서 아버지에게 물려받은 오래된 낡은 검이다.</t>
   </si>
   <si>
@@ -324,14 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Items/BigSPPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Items/SpeedPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Weapons/SwordDefault</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +330,18 @@
   </si>
   <si>
     <t>Prefabs/Weapons/SwordDragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 이동속도 포션으로 사용 시 이동속도가 60초 동안 1 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Items/BigSPPotion </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Items/SpeedPotion </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,7 +777,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -798,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -813,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>17</v>
@@ -825,13 +826,13 @@
         <v>28</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1">
@@ -860,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="5">
         <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1">
@@ -898,16 +899,16 @@
         <v>19</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" s="5">
         <v>10</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1">
@@ -939,13 +940,13 @@
         <v>29</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4" s="5">
         <v>10</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1">
@@ -974,16 +975,16 @@
         <v>21</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" s="5">
         <v>10</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1">
@@ -1012,16 +1013,16 @@
         <v>22</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="5">
         <v>10</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1">
@@ -1050,16 +1051,16 @@
         <v>23</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="5">
         <v>10</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1">
@@ -1073,7 +1074,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -1088,16 +1089,16 @@
         <v>24</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" s="5">
         <v>10</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1">
@@ -1126,16 +1127,16 @@
         <v>25</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" s="5">
         <v>0</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1">
@@ -1164,16 +1165,16 @@
         <v>26</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1">
@@ -1181,7 +1182,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1202,16 +1203,16 @@
         <v>27</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E4BE65-D9AD-43C9-A48C-98AA7720AB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF44A2A-76A9-4B49-B856-4794B82FD90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2490" windowWidth="19545" windowHeight="11295" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,22 @@
   </si>
   <si>
     <t xml:space="preserve">Prefabs/Items/SpeedPotion </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordM05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험가의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜 시간의 모험으로 모험가의 투기가 깃들어 있는 금빛 검이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,6 +475,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -791,10 +810,10 @@
     <col min="11" max="11" width="28.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.25" customWidth="1"/>
-    <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -834,8 +853,11 @@
       <c r="M1" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1">
+    <row r="2" spans="1:14" s="5" customFormat="1">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -855,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>18</v>
@@ -872,8 +894,11 @@
       <c r="M2" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="N2" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1">
+    <row r="3" spans="1:14" s="5" customFormat="1">
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -893,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>19</v>
@@ -910,8 +935,11 @@
       <c r="M3" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1">
+    <row r="4" spans="1:14" s="5" customFormat="1">
       <c r="B4" s="6">
         <v>3</v>
       </c>
@@ -931,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>20</v>
@@ -948,8 +976,11 @@
       <c r="M4" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1">
+    <row r="5" spans="1:14" s="5" customFormat="1">
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -969,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>21</v>
@@ -986,8 +1017,11 @@
       <c r="M5" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1">
+    <row r="6" spans="1:14" s="5" customFormat="1">
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -1007,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>22</v>
@@ -1024,8 +1058,11 @@
       <c r="M6" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1">
+    <row r="7" spans="1:14" s="5" customFormat="1">
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -1045,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>23</v>
@@ -1062,8 +1099,11 @@
       <c r="M7" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1">
+    <row r="8" spans="1:14" s="5" customFormat="1">
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -1083,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>24</v>
@@ -1100,8 +1140,11 @@
       <c r="M8" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1">
+    <row r="9" spans="1:14" s="5" customFormat="1">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -1121,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>25</v>
@@ -1138,8 +1181,11 @@
       <c r="M9" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="N9" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" s="5" customFormat="1">
+    <row r="10" spans="1:14" s="5" customFormat="1">
       <c r="B10" s="6">
         <v>9</v>
       </c>
@@ -1159,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>26</v>
@@ -1176,8 +1222,11 @@
       <c r="M10" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="N10" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" s="5" customFormat="1">
+    <row r="11" spans="1:14" s="5" customFormat="1">
       <c r="B11" s="6">
         <v>10</v>
       </c>
@@ -1197,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="5">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>27</v>
@@ -1213,6 +1262,38 @@
       </c>
       <c r="M11" s="5" t="s">
         <v>58</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>300</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF44A2A-76A9-4B49-B856-4794B82FD90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F06B53-36B3-46C9-A6E0-01D21406ADAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,14 @@
   </si>
   <si>
     <t>UnlockLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/SwordM05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Weapons/SwordM05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,7 +804,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1182,7 +1190,7 @@
         <v>56</v>
       </c>
       <c r="N9" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1">
@@ -1223,7 +1231,7 @@
         <v>57</v>
       </c>
       <c r="N10" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="5" customFormat="1">
@@ -1264,7 +1272,7 @@
         <v>58</v>
       </c>
       <c r="N11" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1294,6 +1302,18 @@
       </c>
       <c r="J12" s="7" t="s">
         <v>64</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F06B53-36B3-46C9-A6E0-01D21406ADAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDB1680-5D0C-4BB5-B300-D6F9EE3114F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="0" yWindow="2490" windowWidth="19545" windowHeight="11295" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -897,7 +897,7 @@
         <v>34</v>
       </c>
       <c r="L2" s="5">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>52</v>
@@ -938,7 +938,7 @@
         <v>34</v>
       </c>
       <c r="L3" s="5">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>51</v>
@@ -979,7 +979,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="5">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>54</v>
@@ -1020,7 +1020,7 @@
         <v>35</v>
       </c>
       <c r="L5" s="5">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>53</v>
@@ -1061,7 +1061,7 @@
         <v>36</v>
       </c>
       <c r="L6" s="5">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>55</v>
@@ -1102,7 +1102,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="5">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>60</v>
@@ -1143,7 +1143,7 @@
         <v>37</v>
       </c>
       <c r="L8" s="5">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>61</v>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDB1680-5D0C-4BB5-B300-D6F9EE3114F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557C40AE-C8EF-4663-A666-F476CFB81B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2490" windowWidth="19545" windowHeight="11295" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
@@ -804,7 +804,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L8"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557C40AE-C8EF-4663-A666-F476CFB81B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799828DA-7B58-4C26-B97B-DEA73E6981BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2490" windowWidth="19545" windowHeight="11295" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,14 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Prefabs/Items/BigSPPotion </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefabs/Items/SpeedPotion </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SwordM05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,6 +358,14 @@
   </si>
   <si>
     <t>Prefabs/Weapons/SwordM05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/SpeedPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/BigSPPotion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -862,7 +862,7 @@
         <v>50</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1">
@@ -1105,7 +1105,7 @@
         <v>99</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N7" s="5">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>99</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N8" s="5">
         <v>1</v>
@@ -1280,7 +1280,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -1298,19 +1298,19 @@
         <v>300</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="L12" s="5">
         <v>0</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N12" s="5">
         <v>1</v>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799828DA-7B58-4C26-B97B-DEA73E6981BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA9AE88-2186-44A8-B1F7-7EA36F756609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="15195" yWindow="1725" windowWidth="16995" windowHeight="13260" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
   <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +366,130 @@
   </si>
   <si>
     <t>Prefabs/Items/BigSPPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steak01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steak02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡다한 생활 지식이 들어있는 평범한 책이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 사용법에 관해 적혀있는 평범한 책이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Book01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Book02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/Book01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/Book02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살코기가 두툼한 일반 고기이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈와 살이 어우러져 부드러운 비프 고기이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/Steak01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/Steak02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Steak01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Steak02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호수에서 자주 볼법한 작은 민물고기이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초원에서 쉽게 발견할 수 있는 식용 버섯이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Mushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/Mushroom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1316,6 +1440,252 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>3</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="5">
+        <v>99</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="5">
+        <v>99</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="5">
+        <v>99</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="5">
+        <v>99</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="5">
+        <v>99</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>4</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="5">
+        <v>99</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA9AE88-2186-44A8-B1F7-7EA36F756609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B095CDF1-BD0A-4392-B838-29CB66CDE207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15195" yWindow="1725" windowWidth="16995" windowHeight="13260" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="14820" yWindow="2550" windowWidth="14070" windowHeight="11295" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="144">
   <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,10 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Steak01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,6 +486,190 @@
   </si>
   <si>
     <t>Prefabs/Items/Mushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Candle01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullCup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carrot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donut01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥주컵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오렌지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도넛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Candle01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/FullCup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Log01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Carrot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Banana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Cake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Donut01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Soda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/Candle01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/FullCup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/Log01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/Orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/Carrot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/Banana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/Cake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/Donut01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/Soda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 산책을 할 때 주로 사용하는 양초이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소주와 맥주가 환상의 조합으로 담겨 있는 맥주컵이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단단하고 질긴 나무이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상큼하고 달달한 오렌지이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈에 좋은 아삭아삭한 당근이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나 팬케이크를 해먹기 좋은 잘 익은 바나나이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기가 잔뜩 들어간 달달한 케이크이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누텔라로 만든 도넛이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시원하고 상큼한 소다맛 음료수이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -925,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1448,7 +1628,7 @@
         <v>68</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -1460,22 +1640,22 @@
         <v>0</v>
       </c>
       <c r="H13" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="K13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L13" s="5">
         <v>99</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N13" s="5">
         <v>1</v>
@@ -1489,7 +1669,7 @@
         <v>69</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -1501,22 +1681,22 @@
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="K14" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" s="5">
         <v>99</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N14" s="5">
         <v>1</v>
@@ -1527,10 +1707,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
@@ -1542,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L15" s="5">
         <v>99</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N15" s="5">
         <v>1</v>
@@ -1568,10 +1748,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -1583,22 +1763,22 @@
         <v>0</v>
       </c>
       <c r="H16" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L16" s="5">
         <v>99</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N16" s="5">
         <v>1</v>
@@ -1609,10 +1789,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -1624,22 +1804,22 @@
         <v>0</v>
       </c>
       <c r="H17" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="L17" s="5">
         <v>99</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N17" s="5">
         <v>1</v>
@@ -1650,10 +1830,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
@@ -1665,24 +1845,393 @@
         <v>0</v>
       </c>
       <c r="H18" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="K18" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L18" s="5">
         <v>99</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="5">
+        <v>99</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="5">
+        <v>99</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" s="5">
+        <v>99</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="5">
+        <v>99</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" s="5">
+        <v>99</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24" s="5">
+        <v>99</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L25" s="5">
+        <v>99</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="5">
+        <v>99</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L27" s="5">
+        <v>99</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N27" s="5">
         <v>1</v>
       </c>
     </row>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B095CDF1-BD0A-4392-B838-29CB66CDE207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B08B9A5-2895-4D1B-9F0E-A96071035C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="2550" windowWidth="14070" windowHeight="11295" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="14730" yWindow="2550" windowWidth="14070" windowHeight="11295" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="159">
   <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,6 +670,65 @@
   </si>
   <si>
     <t>시원하고 상큼한 소다맛 음료수이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bucket01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyBag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그릇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주머니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕조만한 크기를 가진 그릇이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥에 있는 물건을 뽀려서 저장하기 좋은 주머니이다.</t>
+  </si>
+  <si>
+    <t>두둑하게 넣을 수 있는 주머니이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Bucket01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/MoneyBag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/Bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/Bucket01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/MoneyBag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/Bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2235,6 +2294,129 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="6">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L28" s="5">
+        <v>99</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="6">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="L29" s="5">
+        <v>99</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="6">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L30" s="5">
+        <v>99</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N30" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B08B9A5-2895-4D1B-9F0E-A96071035C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF312DD-EB4C-4279-8EFD-C696E0A2E356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14730" yWindow="2550" windowWidth="14070" windowHeight="11295" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="1005" yWindow="2070" windowWidth="19380" windowHeight="13260" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -791,7 +791,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,6 +801,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,7 +825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,6 +855,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1528,8 +1540,8 @@
       <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="6">
-        <v>1</v>
+      <c r="F9" s="11">
+        <v>0.5</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -1593,8 +1605,8 @@
       <c r="M10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="5">
-        <v>3</v>
+      <c r="N10" s="10">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="5" customFormat="1">
@@ -1634,8 +1646,8 @@
       <c r="M11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="5">
-        <v>6</v>
+      <c r="N11" s="10">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1675,8 +1687,8 @@
       <c r="M12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N12" s="5">
-        <v>1</v>
+      <c r="N12" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:14">

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF312DD-EB4C-4279-8EFD-C696E0A2E356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3862D53B-95A0-4C2D-98AD-F01C08D4EA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="2070" windowWidth="19380" windowHeight="13260" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="11280" yWindow="360" windowWidth="14160" windowHeight="14805" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -693,17 +693,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>욕조만한 크기를 가진 그릇이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바닥에 있는 물건을 뽀려서 저장하기 좋은 주머니이다.</t>
-  </si>
-  <si>
     <t>두둑하게 넣을 수 있는 주머니이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -729,6 +722,14 @@
   </si>
   <si>
     <t>Prefabs/Items/Bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥에 있는 물건을 뽀려서 저장하기 좋은 단지이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1178,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2332,16 +2333,16 @@
         <v>147</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L28" s="5">
         <v>99</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N28" s="5">
         <v>1</v>
@@ -2373,16 +2374,16 @@
         <v>148</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="L29" s="5">
         <v>99</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N29" s="5">
         <v>1</v>
@@ -2411,19 +2412,19 @@
         <v>0</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="J30" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L30" s="5">
         <v>99</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N30" s="5">
         <v>1</v>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3862D53B-95A0-4C2D-98AD-F01C08D4EA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E70BAF-B759-48EA-A2B7-F76B710BF503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="360" windowWidth="14160" windowHeight="14805" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="10815" yWindow="540" windowWidth="17190" windowHeight="14685" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E70BAF-B759-48EA-A2B7-F76B710BF503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7A27BC-AAB7-4FE1-951B-4A94D144EA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10815" yWindow="540" windowWidth="17190" windowHeight="14685" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="-270" yWindow="360" windowWidth="15900" windowHeight="14685" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="165">
   <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -689,10 +689,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주머니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>욕조만한 크기를 가진 그릇이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -725,11 +721,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>바닥에 있는 물건을 뽀려서 저장하기 좋은 단지이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BugguBuggu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 부꾸부꾸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/BugguBuggu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/BugguBuggu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카멜레온에 의해 기절초풍한 부꾸부꾸의 몸뚱아리이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게로게로의 주머니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부꾸부꾸의 단지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1177,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1712,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>74</v>
@@ -1753,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>76</v>
@@ -1794,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>82</v>
@@ -1835,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>83</v>
@@ -1876,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>90</v>
@@ -1917,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>91</v>
@@ -1958,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>107</v>
@@ -1999,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>108</v>
@@ -2040,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>109</v>
@@ -2081,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>110</v>
@@ -2122,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>111</v>
@@ -2163,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>112</v>
@@ -2204,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>113</v>
@@ -2245,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>114</v>
@@ -2286,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>115</v>
@@ -2327,22 +2351,22 @@
         <v>0</v>
       </c>
       <c r="H28" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>147</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L28" s="5">
         <v>99</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N28" s="5">
         <v>1</v>
@@ -2356,7 +2380,7 @@
         <v>145</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
@@ -2371,19 +2395,19 @@
         <v>0</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L29" s="5">
         <v>99</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N29" s="5">
         <v>1</v>
@@ -2397,7 +2421,7 @@
         <v>146</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
@@ -2412,21 +2436,62 @@
         <v>0</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L30" s="5">
         <v>99</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="6">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="N31" s="5">
         <v>1</v>
       </c>
     </row>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7A27BC-AAB7-4FE1-951B-4A94D144EA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2030CA-C2E9-4698-B9E2-2784B9384038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-270" yWindow="360" windowWidth="15900" windowHeight="14685" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="15" yWindow="615" windowWidth="13575" windowHeight="14685" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="175">
   <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -685,10 +685,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그릇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>욕조만한 크기를 가진 그릇이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -754,6 +750,50 @@
   </si>
   <si>
     <t>부꾸부꾸의 단지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이하이의 그릇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeroGero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 게로게로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대에 의해 기절초풍한 게로게로의 몸뚱아리이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/GeroGero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/GeroGero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiHi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 하이하이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 이유로 쓰러진 하이하이의 몸뚱아리이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/HiHi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/HiHi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1201,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="K5" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2339,7 +2379,7 @@
         <v>144</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
@@ -2354,19 +2394,19 @@
         <v>6</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="K28" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L28" s="5">
         <v>99</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N28" s="5">
         <v>1</v>
@@ -2380,7 +2420,7 @@
         <v>145</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
@@ -2395,19 +2435,19 @@
         <v>0</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L29" s="5">
         <v>99</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N29" s="5">
         <v>1</v>
@@ -2421,7 +2461,7 @@
         <v>146</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
@@ -2436,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L30" s="5">
         <v>99</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N30" s="5">
         <v>1</v>
@@ -2459,39 +2499,121 @@
         <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K31" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K31" s="5" t="s">
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L31" s="5">
-        <v>1</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="N31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="6">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="6">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="N33" s="5">
         <v>1</v>
       </c>
     </row>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2030CA-C2E9-4698-B9E2-2784B9384038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8615C705-730F-4BF8-AE86-B791A71BCC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="615" windowWidth="13575" windowHeight="14685" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="15105" yWindow="345" windowWidth="12750" windowHeight="14685" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="180">
   <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,6 +794,26 @@
   </si>
   <si>
     <t>Prefabs/Items/HiHi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을의 화폐로 쓰이고 있는 골드이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/GoldCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/GoldCoin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1241,10 +1261,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K5" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2617,6 +2638,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="6">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L34" s="5">
+        <v>1</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel2json-master/Items_Data.xlsx
+++ b/excel2json-master/Items_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8615C705-730F-4BF8-AE86-B791A71BCC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3482D8B6-FA1F-4D24-A4FF-C4B8DEAB6DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15105" yWindow="345" windowWidth="12750" windowHeight="14685" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="190">
   <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -814,6 +814,46 @@
   </si>
   <si>
     <t>Prefabs/Items/GoldCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/RedStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Icons/BlueStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/PP_Gemstone_13_Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Items/PP_Gemstone_11_Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물의 아티펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 힘이 담겨있는 물의 아티펙트이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불꽃의 아티펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 힘이 담겨있는 불꽃의 아티펙트이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1261,11 +1301,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2679,6 +2719,88 @@
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="6">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="6">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="N36" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
